--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_47.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_47.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1782"/>
+  <dimension ref="A1:N1783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.568354845046997</v>
+        <v>0.002428770065307617</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0664372444152832</v>
+        <v>0.05807113647460938</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09764480590820312</v>
+        <v>0.1052060127258301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 0), (5, 2), (4, 1), (6, 3), (4, 2), (5, 5), (6, 4), (4, 4), (3, 3), (3, 5), (5, 6), (5, 1), (3, 6), (1, 5), (2, 4), (1, 3), (0, 5), (2, 2), (2, 3), (1, 4), (2, 0), (2, 5), (0, 4), (2, 6), (4, 5), (3, 4), (5, 4), (4, 6), (6, 6), (6, 5), (5, 3), (0, 6), (1, 6), (3, 2), (4, 3), (6, 2), (3, 1), (5, 0), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 0], [4, 0], [5, 2], [4, 1], [6, 3], [4, 2], [5, 5], [6, 4], [4, 4], [3, 3], [3, 5], [5, 6], [5, 1], [3, 6], [1, 5], [2, 4], [1, 3], [0, 5], [2, 2], [2, 3], [1, 4], [2, 0], [2, 5], [0, 4], [2, 6], [4, 5], [3, 4], [5, 4], [4, 6], [6, 6], [6, 5], [5, 3], [0, 6], [1, 6], [3, 2], [4, 3], [6, 2], [3, 1], [5, 0], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (5, 5), (4, 2), (4, 4), (6, 4), (3, 5), (3, 3), (1, 5), (5, 6), (5, 1), (3, 6), (6, 1), (2, 4), (1, 4), (0, 5), (2, 3), (0, 0), (2, 5), (0, 4), (3, 4), (2, 6), (4, 6), (4, 5), (4, 3), (5, 4), (6, 5), (6, 6), (5, 3), (6, 2), (0, 6), (1, 6), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [5, 5], [4, 2], [4, 4], [6, 4], [3, 5], [3, 3], [1, 5], [5, 6], [5, 1], [3, 6], [6, 1], [2, 4], [1, 4], [0, 5], [2, 3], [0, 0], [2, 5], [0, 4], [3, 4], [2, 6], [4, 6], [4, 5], [4, 3], [5, 4], [6, 5], [6, 6], [5, 3], [6, 2], [0, 6], [1, 6], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (5, 5), (4, 2), (4, 4), (6, 4), (3, 5), (3, 3), (2, 1), (5, 6), (5, 1), (2, 3), (6, 1), (2, 0), (2, 2), (4, 3), (3, 2), (3, 0), (3, 4), (3, 1), (4, 5), (4, 6), (6, 6), (5, 4), (5, 3), (6, 5), (6, 2), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [5, 5], [4, 2], [4, 4], [6, 4], [3, 5], [3, 3], [2, 1], [5, 6], [5, 1], [2, 3], [6, 1], [2, 0], [2, 2], [4, 3], [3, 2], [3, 0], [3, 4], [3, 1], [4, 5], [4, 6], [6, 6], [5, 4], [5, 3], [6, 5], [6, 2], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (3, 0), (4, 2), (1, 5), (6, 4), (0, 6), (3, 6), (3, 1), (0, 5), (5, 1), (2, 0), (6, 1), (0, 3), (1, 4), (0, 4), (2, 5), (5, 0), (1, 6), (5, 3), (6, 5), (6, 6), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [3, 0], [4, 2], [1, 5], [6, 4], [0, 6], [3, 6], [3, 1], [0, 5], [5, 1], [2, 0], [6, 1], [0, 3], [1, 4], [0, 4], [2, 5], [5, 0], [1, 6], [5, 3], [6, 5], [6, 6], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (3, 0), (4, 2), (0, 6), (6, 4), (1, 6), (3, 3), (3, 1), (3, 2), (5, 1), (5, 0), (6, 1), (5, 3), (4, 3), (5, 4), (6, 5), (6, 0), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [3, 0], [4, 2], [0, 6], [6, 4], [1, 6], [3, 3], [3, 1], [3, 2], [5, 1], [5, 0], [6, 1], [5, 3], [4, 3], [5, 4], [6, 5], [6, 0], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (3, 0), (4, 1), (3, 2), (4, 2), (0, 6), (5, 3), (1, 6), (3, 3), (3, 1), (4, 3), (5, 1), (5, 0), (6, 1), (6, 2), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[5, 2], [4, 0], [3, 0], [4, 1], [3, 2], [4, 2], [0, 6], [5, 3], [1, 6], [3, 3], [3, 1], [4, 3], [5, 1], [5, 0], [6, 1], [6, 2], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (3, 0), (4, 1), (3, 2), (3, 1), (0, 6), (3, 3), (1, 6), (4, 3), (5, 0), (6, 1), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[5, 2], [4, 0], [3, 0], [4, 1], [3, 2], [3, 1], [0, 6], [3, 3], [1, 6], [4, 3], [5, 0], [6, 1], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5967,7 +5967,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[(4, 1), (4, 0), (5, 1), (3, 1), (5, 0), (6, 0), (0, 6), (1, 6), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 1], [4, 0], [5, 1], [3, 1], [5, 0], [6, 0], [0, 6], [1, 6], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>[(5, 1), (0, 6), (6, 0), (3, 3), (6, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[5, 1], [0, 6], [6, 0], [3, 3], [6, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8412,7 +8412,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>[(5, 1), (0, 6), (6, 0), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 1), (3, 3)]</t>
+          <t>[[5, 1], [0, 6], [6, 0], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 1], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9666,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (6, 0), (3, 3), (6, 1), (0, 6)]</t>
+          <t>[[5, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [6, 0], [3, 3], [6, 1], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (4, 0), (3, 3), (6, 0), (5, 1), (6, 1), (0, 6)]</t>
+          <t>[[3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [4, 0], [3, 3], [6, 0], [5, 1], [6, 1], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -12123,7 +12123,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (4, 1), (3, 0), (5, 0), (3, 1), (4, 0), (3, 3), (6, 0), (5, 1), (6, 1), (0, 6)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [4, 1], [3, 0], [5, 0], [3, 1], [4, 0], [3, 3], [6, 0], [5, 1], [6, 1], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -13245,7 +13245,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>[(6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (6, 6), (4, 1), (4, 3), (3, 2), (3, 0), (3, 1), (5, 0), (3, 3), (4, 0), (4, 2), (6, 0), (5, 1), (6, 1), (0, 6)]</t>
+          <t>[[6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [6, 6], [4, 1], [4, 3], [3, 2], [3, 0], [3, 1], [5, 0], [3, 3], [4, 0], [4, 2], [6, 0], [5, 1], [6, 1], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -14224,7 +14224,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>[(5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (6, 4), (4, 1), (4, 3), (3, 2), (3, 0), (3, 1), (5, 0), (3, 3), (4, 0), (4, 2), (6, 0), (5, 1), (6, 1), (0, 6)]</t>
+          <t>[[5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [6, 4], [4, 1], [4, 3], [3, 2], [3, 0], [3, 1], [5, 0], [3, 3], [4, 0], [4, 2], [6, 0], [5, 1], [6, 1], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (3, 3), (5, 5), (5, 4), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (6, 4), (4, 1), (4, 3), (3, 2), (3, 0), (3, 1), (5, 0), (4, 2), (4, 0), (5, 1), (6, 0), (5, 2), (6, 1), (0, 6)]</t>
+          <t>[[4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [3, 3], [5, 5], [5, 4], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [6, 4], [4, 1], [4, 3], [3, 2], [3, 0], [3, 1], [5, 0], [4, 2], [4, 0], [5, 1], [6, 0], [5, 2], [6, 1], [0, 6]]</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>[(2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (3, 0), (4, 5), (3, 1), (3, 2), (3, 6), (3, 5), (6, 5), (6, 6), (6, 3), (5, 3), (6, 2), (6, 4), (4, 1), (4, 3), (3, 3), (4, 0), (4, 2), (5, 0), (4, 4), (5, 1), (5, 2), (6, 0), (5, 4), (6, 1), (4, 6)]</t>
+          <t>[[2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [3, 0], [4, 5], [3, 1], [3, 2], [3, 6], [3, 5], [6, 5], [6, 6], [6, 3], [5, 3], [6, 2], [6, 4], [4, 1], [4, 3], [3, 3], [4, 0], [4, 2], [5, 0], [4, 4], [5, 1], [5, 2], [6, 0], [5, 4], [6, 1], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>[(6, 3), (6, 2), (5, 1), (4, 1), (3, 2), (2, 2), (1, 1), (0, 1), (0, 2), (1, 2), (2, 1), (3, 1), (4, 2), (5, 2), (6, 1), (5, 3), (6, 4), (4, 3), (0, 3), (0, 0), (1, 6), (3, 4), (3, 0), (4, 5), (2, 0), (1, 3), (3, 6), (1, 0), (0, 4), (2, 3), (4, 4), (3, 3), (5, 0), (1, 5), (4, 0), (5, 4), (2, 4), (0, 5), (3, 5), (6, 0), (4, 6), (5, 5), (5, 6), (6, 5), (1, 4), (6, 6), (2, 6)]</t>
+          <t>[[6, 3], [6, 2], [5, 1], [4, 1], [3, 2], [2, 2], [1, 1], [0, 1], [0, 2], [1, 2], [2, 1], [3, 1], [4, 2], [5, 2], [6, 1], [5, 3], [6, 4], [4, 3], [0, 3], [0, 0], [1, 6], [3, 4], [3, 0], [4, 5], [2, 0], [1, 3], [3, 6], [1, 0], [0, 4], [2, 3], [4, 4], [3, 3], [5, 0], [1, 5], [4, 0], [5, 4], [2, 4], [0, 5], [3, 5], [6, 0], [4, 6], [5, 5], [5, 6], [6, 5], [1, 4], [6, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -17612,7 +17612,7 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1), (3, 0), (4, 0), (0, 6), (0, 4), (5, 3), (6, 4), (4, 3), (1, 4), (2, 3), (1, 6), (3, 4), (5, 0), (4, 5), (2, 4), (2, 5), (3, 6), (4, 2), (2, 6), (3, 5), (4, 4), (4, 6), (0, 5), (1, 5), (4, 1), (3, 2), (3, 3), (0, 0), (5, 5), (6, 0), (5, 6), (5, 4), (6, 5), (6, 3), (5, 2), (6, 6), (5, 1)]</t>
+          <t>[[2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1], [3, 0], [4, 0], [0, 6], [0, 4], [5, 3], [6, 4], [4, 3], [1, 4], [2, 3], [1, 6], [3, 4], [5, 0], [4, 5], [2, 4], [2, 5], [3, 6], [4, 2], [2, 6], [3, 5], [4, 4], [4, 6], [0, 5], [1, 5], [4, 1], [3, 2], [3, 3], [0, 0], [5, 5], [6, 0], [5, 6], [5, 4], [6, 5], [6, 3], [5, 2], [6, 6], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -18310,7 +18310,7 @@
     <row r="1719">
       <c r="A1719" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (1, 1), (1, 0), (0, 1), (2, 2), (2, 3), (2, 0), (0, 6), (0, 4), (3, 3), (4, 0), (4, 1), (1, 6), (2, 4), (5, 3), (6, 4), (4, 3), (2, 5), (3, 4), (2, 6), (3, 5), (5, 0), (4, 5), (4, 4), (3, 6), (4, 6), (4, 2), (5, 5), (5, 4), (5, 1), (5, 6), (6, 5), (6, 6), (5, 2), (6, 1), (6, 2), (0, 5), (1, 5), (0, 0), (0, 3), (1, 3), (0, 2), (3, 0), (3, 1), (1, 4), (3, 2)]</t>
+          <t>[[2, 1], [1, 2], [1, 1], [1, 0], [0, 1], [2, 2], [2, 3], [2, 0], [0, 6], [0, 4], [3, 3], [4, 0], [4, 1], [1, 6], [2, 4], [5, 3], [6, 4], [4, 3], [2, 5], [3, 4], [2, 6], [3, 5], [5, 0], [4, 5], [4, 4], [3, 6], [4, 6], [4, 2], [5, 5], [5, 4], [5, 1], [5, 6], [6, 5], [6, 6], [5, 2], [6, 1], [6, 2], [0, 5], [1, 5], [0, 0], [0, 3], [1, 3], [0, 2], [3, 0], [3, 1], [1, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -18749,110 +18749,120 @@
     <row r="1778">
       <c r="A1778" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1778" t="n">
-        <v>289</v>
+        <v>0.9816012455631042</v>
       </c>
     </row>
     <row r="1779">
       <c r="A1779" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1779" t="n">
-        <v>1459</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1780">
       <c r="A1780" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1780" t="n">
-        <v>20</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1781">
       <c r="A1781" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1781" t="n">
-        <v>8.036293029785156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1782">
       <c r="A1782" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1782" t="n">
+        <v>0.3979401588439941</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1782" t="inlineStr">
+      <c r="B1783" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1782" t="inlineStr">
+      <c r="C1783" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1782" t="inlineStr">
+      <c r="D1783" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1782" t="inlineStr">
+      <c r="E1783" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1782" t="inlineStr">
+      <c r="F1783" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1782" t="inlineStr">
+      <c r="G1783" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1782" t="inlineStr">
+      <c r="H1783" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1782" t="inlineStr">
+      <c r="I1783" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1782" t="inlineStr">
+      <c r="J1783" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1782" t="inlineStr">
+      <c r="K1783" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1782" t="inlineStr">
+      <c r="L1783" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1782" t="inlineStr">
+      <c r="M1783" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1782" t="inlineStr">
+      <c r="N1783" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
